--- a/APM files/123649133/Export Results/123649133 EXPORT Compensation Cloud Export_result.xlsx
+++ b/APM files/123649133/Export Results/123649133 EXPORT Compensation Cloud Export_result.xlsx
@@ -237,17 +237,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Dual</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Merchant</t>
+          <t>101544913_M_S_M_0</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>610790784</t>
+          <t>610821766</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -262,7 +262,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.165</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -283,11 +283,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
+      <c r="S2"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -322,22 +318,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Dual</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>610790783</t>
+          <t>610790784</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Hotel Collect</t>
+          <t>Expedia Collect</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -350,13 +346,17 @@
           <t>0.165</t>
         </is>
       </c>
-      <c r="M3"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -373,12 +373,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>38519695</t>
+          <t>101544913</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Baltic Apartments - Apartament Aurora</t>
+          <t>Seaside Garden Apartments &amp; Wellness</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -398,7 +398,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>38519695</t>
+          <t>101544913</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -408,17 +408,17 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Merchant</t>
+          <t>Agency</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>480041542</t>
+          <t>610790783</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Expedia Collect</t>
+          <t>Hotel Collect</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -428,20 +428,16 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
+          <t>0.165</t>
+        </is>
+      </c>
+      <c r="M4"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4"/>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -458,12 +454,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>38515954</t>
+          <t>38519695</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Baltic Apartments - Apartament Nemuna</t>
+          <t>Baltic Apartments - Apartament Aurora</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -483,7 +479,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>38515954</t>
+          <t>38519695</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -498,7 +494,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>350018042</t>
+          <t>480041542</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -526,7 +522,7 @@
       <c r="P5"/>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -543,12 +539,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>23909649</t>
+          <t>38515954</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Baltic Apartments - Apartament Orion</t>
+          <t>Baltic Apartments - Apartament Nemuna</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -568,7 +564,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>23909649</t>
+          <t>38515954</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -583,7 +579,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>600035830</t>
+          <t>350018042</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -611,7 +607,7 @@
       <c r="P6"/>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -628,12 +624,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>39421704</t>
+          <t>23909649</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Baltic Apartments - Apartamenty Bałtyk</t>
+          <t>Baltic Apartments - Apartament Orion</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -653,7 +649,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>39421704</t>
+          <t>23909649</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -668,7 +664,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>590051741</t>
+          <t>600035830</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -696,7 +692,7 @@
       <c r="P7"/>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -713,12 +709,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>22283126</t>
+          <t>39421704</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Baltic Apartments - Apartamenty Zdrojowa</t>
+          <t>Baltic Apartments - Apartamenty Bałtyk</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -738,7 +734,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>22283126</t>
+          <t>39421704</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -753,7 +749,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>520035870</t>
+          <t>590051741</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -781,7 +777,7 @@
       <c r="P8"/>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>20</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -798,12 +794,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>38533193</t>
+          <t>22283126</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Baltic Apartments-Willa Carmen 14</t>
+          <t>Baltic Apartments - Apartamenty Zdrojowa</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -823,7 +819,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>38533193</t>
+          <t>22283126</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -838,7 +834,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>540049572</t>
+          <t>520035870</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -866,7 +862,7 @@
       <c r="P9"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -883,12 +879,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>38533039</t>
+          <t>38533193</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Baltic Apartments-Willa Carmen 13</t>
+          <t>Baltic Apartments-Willa Carmen 14</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -908,7 +904,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>38533039</t>
+          <t>38533193</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -923,7 +919,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>450041594</t>
+          <t>540049572</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -968,12 +964,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>83437017</t>
+          <t>38533039</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Baltic-Apartments - Apartamenty Kormoran</t>
+          <t>Baltic Apartments-Willa Carmen 13</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -993,7 +989,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>83437017</t>
+          <t>38533039</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1008,7 +1004,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>610264647</t>
+          <t>450041594</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1023,7 +1019,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.165</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1036,7 +1032,7 @@
       <c r="P11"/>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1053,12 +1049,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>38518854</t>
+          <t>83437017</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Baltic-Apartments - Willa Carmen</t>
+          <t>Baltic-Apartments - Apartamenty Kormoran</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1078,7 +1074,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>38518854</t>
+          <t>83437017</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1093,7 +1089,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>530027679</t>
+          <t>610264647</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1108,7 +1104,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.165</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1121,7 +1117,7 @@
       <c r="P12"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1138,12 +1134,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>87924077</t>
+          <t>38518854</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Baltic-Apartments - Sun Towers</t>
+          <t>Baltic-Apartments - Willa Carmen</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1163,7 +1159,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>87924077</t>
+          <t>38518854</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1178,7 +1174,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>610347036</t>
+          <t>530027679</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1193,7 +1189,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.165</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1206,7 +1202,7 @@
       <c r="P13"/>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>6</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1223,12 +1219,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>58316555</t>
+          <t>87924077</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Baltic-Apartments - Platan Tower</t>
+          <t>Baltic-Apartments - Sun Towers</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1248,7 +1244,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>58316555</t>
+          <t>87924077</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1263,7 +1259,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>490062727</t>
+          <t>610347036</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1278,7 +1274,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.165</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1291,7 +1287,7 @@
       <c r="P14"/>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1308,12 +1304,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>38514997</t>
+          <t>58316555</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Baltic-Apartments - Aquamarina C12</t>
+          <t>Baltic-Apartments - Platan Tower</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1333,7 +1329,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>38514997</t>
+          <t>58316555</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1348,7 +1344,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>470041594</t>
+          <t>490062727</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1376,7 +1372,7 @@
       <c r="P15"/>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1393,12 +1389,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>38515255</t>
+          <t>38514997</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Baltic-Apartments - Aquamarina C11</t>
+          <t>Baltic-Apartments - Aquamarina C12</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1418,7 +1414,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>38515255</t>
+          <t>38514997</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1433,7 +1429,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>330020006</t>
+          <t>470041594</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1478,12 +1474,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>38515686</t>
+          <t>38515255</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Baltic-Apartments - Aquamarina C02</t>
+          <t>Baltic-Apartments - Aquamarina C11</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1503,7 +1499,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>38515686</t>
+          <t>38515255</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1518,7 +1514,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>580050111</t>
+          <t>330020006</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1563,12 +1559,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>88893764</t>
+          <t>38515686</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Baltic-Apartments - Apartamenty Matejki</t>
+          <t>Baltic-Apartments - Aquamarina C02</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1588,7 +1584,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>88893764</t>
+          <t>38515686</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1603,7 +1599,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>610355721</t>
+          <t>580050111</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1618,7 +1614,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.165</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1631,7 +1627,7 @@
       <c r="P18"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1648,12 +1644,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>74616761</t>
+          <t>88893764</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Baltic-Apartments - Apartamenty Lissa</t>
+          <t>Baltic-Apartments - Apartamenty Matejki</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1673,7 +1669,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>74616761</t>
+          <t>88893764</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1688,7 +1684,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>610144563</t>
+          <t>610355721</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1716,15 +1712,100 @@
       <c r="P19"/>
       <c r="Q19" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Standalone</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>74616761</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Baltic-Apartments - Apartamenty Lissa</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>EQC</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>74616761</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Merchant</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>610144563</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Expedia Collect</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>0.165</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20"/>
+      <c r="Q20" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>Standalone</t>
         </is>
@@ -1830,12 +1911,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Merchant</t>
+          <t>101544913_M_S_M_0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>610790784</t>
+          <t>610821766</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1860,7 +1941,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Flex</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1892,12 +1973,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Merchant</t>
+          <t>101544913_M_S_M_0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>610790784</t>
+          <t>610821766</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1922,7 +2003,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Flex</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -1954,12 +2035,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Merchant</t>
+          <t>101544913_M_S_M_0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>610790784</t>
+          <t>610821766</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1984,7 +2065,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Flex</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -2016,12 +2097,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Merchant</t>
+          <t>101544913_M_S_M_0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>610790784</t>
+          <t>610821766</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2046,7 +2127,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Flex</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -2078,12 +2159,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Merchant</t>
+          <t>101544913_M_S_M_0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>610790784</t>
+          <t>610821766</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2108,7 +2189,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Flex</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -2140,12 +2221,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Merchant</t>
+          <t>101544913_M_S_M_0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>610790784</t>
+          <t>610821766</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2170,7 +2251,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Flex</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -2202,12 +2283,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Merchant</t>
+          <t>101544913_M_S_M_0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>610790784</t>
+          <t>610821766</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2232,7 +2313,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Flex</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2264,12 +2345,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Merchant</t>
+          <t>101544913_M_S_M_0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>610790784</t>
+          <t>610821766</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2294,7 +2375,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Flex</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2326,12 +2407,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Merchant</t>
+          <t>101544913_M_S_M_0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>610790784</t>
+          <t>610821766</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2356,7 +2437,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Flex</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2388,12 +2469,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Merchant</t>
+          <t>101544913_M_S_M_0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>610790784</t>
+          <t>610821766</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2418,7 +2499,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Flex</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2445,27 +2526,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>101544913</t>
+          <t>38519695</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>610790783</t>
+          <t>480041542</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>Bezzwrotny</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>393706823</t>
+          <t>385139492</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2480,7 +2561,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Flex</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -2495,29 +2576,29 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Superior Suite</t>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>324094435</t>
+          <t>218160172</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>101544913</t>
+          <t>38519695</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>610790783</t>
+          <t>480041542</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2527,7 +2608,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>393706822</t>
+          <t>274219755</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -2542,7 +2623,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Flex</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2557,39 +2638,39 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Superior Suite</t>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>324094435</t>
+          <t>218160172</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>101544913</t>
+          <t>38515954</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>610790783</t>
+          <t>350018042</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>393706675</t>
+          <t>387845736</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -2604,7 +2685,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Flex</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -2619,39 +2700,39 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Deluxe Suite</t>
+          <t>Classic Apartment</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>324094362</t>
+          <t>321142228</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>101544913</t>
+          <t>38515954</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>610790783</t>
+          <t>350018042</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Non-refundable</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>393706674</t>
+          <t>387845503</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -2666,7 +2747,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Flex</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -2681,29 +2762,29 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Deluxe Suite</t>
+          <t>Classic Apartment</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>324094362</t>
+          <t>321142105</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>101544913</t>
+          <t>38515954</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>610790783</t>
+          <t>350018042</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2713,7 +2794,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>393706557</t>
+          <t>387845279</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -2728,7 +2809,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Flex</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -2743,29 +2824,29 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Deluxe Suite</t>
+          <t>Classic Apartment</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>324094329</t>
+          <t>321142105</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>101544913</t>
+          <t>38515954</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>610790783</t>
+          <t>350018042</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2775,7 +2856,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>393706556</t>
+          <t>387845534</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2790,7 +2871,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Flex</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -2805,39 +2886,39 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Deluxe Suite</t>
+          <t>Classic Apartment</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>324094329</t>
+          <t>321142062</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>101544913</t>
+          <t>38515954</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>610790783</t>
+          <t>350018042</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>393694095</t>
+          <t>387845104</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2852,7 +2933,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Flex</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2867,39 +2948,39 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Deluxe Suite</t>
+          <t>Classic Apartment</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>324089238</t>
+          <t>321142062</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>101544913</t>
+          <t>38515954</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>610790783</t>
+          <t>350018042</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Non-refundable</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>393694008</t>
+          <t>387845090</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2914,7 +2995,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Flex</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2929,39 +3010,39 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Deluxe Suite</t>
+          <t>Classic Apartment</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>324089238</t>
+          <t>321142035</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>101544913</t>
+          <t>38515954</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>610790783</t>
+          <t>350018042</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>393694096</t>
+          <t>387844923</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2976,7 +3057,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Flex</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2991,39 +3072,39 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Junior Suite</t>
+          <t>Classic Apartment</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>324071127</t>
+          <t>321142035</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>101544913</t>
+          <t>38515954</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Agency</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>610790783</t>
+          <t>350018042</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Non-refundable</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>393631447</t>
+          <t>387844861</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -3038,7 +3119,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Flex</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -3053,19 +3134,19 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Junior Suite</t>
+          <t>Classic Suite</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>324071127</t>
+          <t>321141994</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>38519695</t>
+          <t>38515954</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3075,17 +3156,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>480041542</t>
+          <t>350018042</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Bezzwrotny</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>385139492</t>
+          <t>387844756</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -3115,19 +3196,19 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>Classic Suite</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>218160172</t>
+          <t>321141994</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>38519695</t>
+          <t>38515954</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3137,7 +3218,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>480041542</t>
+          <t>350018042</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -3147,7 +3228,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>274219755</t>
+          <t>387844265</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -3177,12 +3258,12 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>Classic Apartment</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>218160172</t>
+          <t>321141764</t>
         </is>
       </c>
     </row>
@@ -3204,12 +3285,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Non-refundable</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>387845736</t>
+          <t>387844245</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -3244,7 +3325,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>321142228</t>
+          <t>321141764</t>
         </is>
       </c>
     </row>
@@ -3266,12 +3347,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>387845503</t>
+          <t>387770579</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -3301,12 +3382,12 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Classic Apartment</t>
+          <t>Traditional Apartment</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>321142105</t>
+          <t>321119814</t>
         </is>
       </c>
     </row>
@@ -3328,12 +3409,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Non-refundable</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>387845279</t>
+          <t>387770352</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -3363,12 +3444,12 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Classic Apartment</t>
+          <t>Traditional Apartment</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>321142105</t>
+          <t>321119814</t>
         </is>
       </c>
     </row>
@@ -3390,12 +3471,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>Bezzwrotna</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>387845534</t>
+          <t>385151842</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -3430,7 +3511,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>321142062</t>
+          <t>214220777</t>
         </is>
       </c>
     </row>
@@ -3452,12 +3533,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Non-refundable</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>387845104</t>
+          <t>248148131</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -3492,14 +3573,14 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>321142062</t>
+          <t>214220777</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>38515954</t>
+          <t>23909649</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3509,17 +3590,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>350018042</t>
+          <t>600035830</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>Bezzwrotna</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>387845090</t>
+          <t>385151714</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -3554,14 +3635,14 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>321142035</t>
+          <t>221741438</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>38515954</t>
+          <t>23909649</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3571,7 +3652,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>350018042</t>
+          <t>600035830</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -3581,7 +3662,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>387844923</t>
+          <t>298198075</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -3616,14 +3697,14 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>321142035</t>
+          <t>221741438</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>38515954</t>
+          <t>39421704</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3633,17 +3714,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>350018042</t>
+          <t>590051741</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>Bezzwrotna Bałtyk 5/53</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>387844861</t>
+          <t>390478187</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -3673,19 +3754,19 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Classic Suite</t>
+          <t>Apartment (Apartament Bałtyk 5/43)</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>321141994</t>
+          <t>322126859</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>38515954</t>
+          <t>39421704</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3695,7 +3776,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>350018042</t>
+          <t>590051741</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -3705,7 +3786,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>387844756</t>
+          <t>390478186</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -3735,19 +3816,19 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Classic Suite</t>
+          <t>Apartment (Apartament Bałtyk 5/43)</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>321141994</t>
+          <t>322126859</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>38515954</t>
+          <t>39421704</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3757,17 +3838,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>350018042</t>
+          <t>590051741</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Non-refundable</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>387844265</t>
+          <t>390476919</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -3797,19 +3878,19 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Classic Apartment</t>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>321141764</t>
+          <t>322126371</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>38515954</t>
+          <t>39421704</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3819,17 +3900,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>350018042</t>
+          <t>590051741</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>Zwrotna 30 dni</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>387844245</t>
+          <t>390476860</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3859,19 +3940,19 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Classic Apartment</t>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>321141764</t>
+          <t>322126371</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>38515954</t>
+          <t>39421704</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3881,7 +3962,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>350018042</t>
+          <t>590051741</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -3891,7 +3972,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>387770579</t>
+          <t>390476895</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3921,19 +4002,19 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Traditional Apartment</t>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>321119814</t>
+          <t>322126362</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>38515954</t>
+          <t>39421704</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3943,7 +4024,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>350018042</t>
+          <t>590051741</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3953,7 +4034,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>387770352</t>
+          <t>390476859</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3983,19 +4064,19 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Traditional Apartment</t>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>321119814</t>
+          <t>322126362</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>38515954</t>
+          <t>39421704</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4005,17 +4086,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>350018042</t>
+          <t>590051741</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Bezzwrotna</t>
+          <t>Non-refundable</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>385151842</t>
+          <t>387827785</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -4045,19 +4126,19 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Classic Apartment</t>
+          <t>Panoramic Apartment</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>214220777</t>
+          <t>321137502</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>38515954</t>
+          <t>39421704</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4067,17 +4148,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>350018042</t>
+          <t>590051741</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>248148131</t>
+          <t>387827774</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -4107,19 +4188,19 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Classic Apartment</t>
+          <t>Panoramic Apartment</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>214220777</t>
+          <t>321137502</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>23909649</t>
+          <t>39421704</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4129,17 +4210,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>600035830</t>
+          <t>590051741</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Bezzwrotna</t>
+          <t>Non-refundable</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>385151714</t>
+          <t>387827326</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -4169,19 +4250,19 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Classic Apartment</t>
+          <t>Panoramic Apartment</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>221741438</t>
+          <t>321137038</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>23909649</t>
+          <t>39421704</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4191,7 +4272,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>600035830</t>
+          <t>590051741</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -4201,7 +4282,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>298198075</t>
+          <t>387823948</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -4231,12 +4312,12 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Classic Apartment</t>
+          <t>Panoramic Apartment</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>221741438</t>
+          <t>321137038</t>
         </is>
       </c>
     </row>
@@ -4258,12 +4339,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Bezzwrotna Bałtyk 5/53</t>
+          <t>Bezzwrotna Bałtyk 5/28</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>390478187</t>
+          <t>385154247</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -4293,12 +4374,12 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Apartment (Apartament Bałtyk 5/43)</t>
+          <t>Apartment (Apartament Bałtyk 5/28)</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>322126859</t>
+          <t>233465396</t>
         </is>
       </c>
     </row>
@@ -4325,7 +4406,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>390478186</t>
+          <t>296420462</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -4355,12 +4436,12 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Apartment (Apartament Bałtyk 5/43)</t>
+          <t>Apartment (Apartament Bałtyk 5/28)</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>322126859</t>
+          <t>233465396</t>
         </is>
       </c>
     </row>
@@ -4382,12 +4463,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>Bezzwrotna Bałtyk 6/26</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>390476919</t>
+          <t>385154074</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -4417,12 +4498,12 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>Apartment (Apartament Bałtyk 6/26)</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>322126371</t>
+          <t>233465395</t>
         </is>
       </c>
     </row>
@@ -4444,12 +4525,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Zwrotna 30 dni</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>390476860</t>
+          <t>296420461</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -4479,12 +4560,12 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>Apartment (Apartament Bałtyk 6/26)</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>322126371</t>
+          <t>233465395</t>
         </is>
       </c>
     </row>
@@ -4506,12 +4587,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Bezzwrotna Bałtyk 5/45</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>390476895</t>
+          <t>385153714</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -4541,12 +4622,12 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>Apartment, Bay View (Apartament Bałtyk 5/45 Bay View)</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>322126362</t>
+          <t>233465393</t>
         </is>
       </c>
     </row>
@@ -4568,12 +4649,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>390476859</t>
+          <t>296420459</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -4603,12 +4684,12 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>Apartment, Bay View (Apartament Bałtyk 5/45 Bay View)</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>322126362</t>
+          <t>233465393</t>
         </is>
       </c>
     </row>
@@ -4630,12 +4711,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>Bezzwrotna Bałtyk 5/43</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>387827785</t>
+          <t>385153581</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4665,12 +4746,12 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Panoramic Apartment</t>
+          <t>Apartment (Apartament Bałtyk 5/43)</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>321137502</t>
+          <t>233465392</t>
         </is>
       </c>
     </row>
@@ -4697,7 +4778,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>387827774</t>
+          <t>296420458</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4727,12 +4808,12 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Panoramic Apartment</t>
+          <t>Apartment (Apartament Bałtyk 5/43)</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>321137502</t>
+          <t>233465392</t>
         </is>
       </c>
     </row>
@@ -4754,12 +4835,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>Bezzwrotna Bałtyk 5/11</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>387827326</t>
+          <t>385153421</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4789,12 +4870,12 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Panoramic Apartment</t>
+          <t>Apartment (Apartament Baltyk 5/11)</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>321137038</t>
+          <t>233465391</t>
         </is>
       </c>
     </row>
@@ -4821,7 +4902,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>387823948</t>
+          <t>296420456</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4851,19 +4932,19 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Panoramic Apartment</t>
+          <t>Apartment (Apartament Baltyk 5/11)</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>321137038</t>
+          <t>233465391</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>39421704</t>
+          <t>22283126</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4873,17 +4954,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>590051741</t>
+          <t>520035870</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Bezzwrotna Bałtyk 5/28</t>
+          <t>Bezzwrotna</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>385154247</t>
+          <t>390483981</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4913,19 +4994,19 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Apartment (Apartament Bałtyk 5/28)</t>
+          <t>Junior Apartment</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>233465396</t>
+          <t>322131233</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>39421704</t>
+          <t>22283126</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -4935,7 +5016,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>590051741</t>
+          <t>520035870</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -4945,7 +5026,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>296420462</t>
+          <t>390483980</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4975,19 +5056,19 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Apartment (Apartament Bałtyk 5/28)</t>
+          <t>Junior Apartment</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>233465396</t>
+          <t>322131233</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>39421704</t>
+          <t>22283126</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4997,17 +5078,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>590051741</t>
+          <t>520035870</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Bezzwrotna Bałtyk 6/26</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>385154074</t>
+          <t>385539408</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -5037,19 +5118,19 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Apartment (Apartament Bałtyk 6/26)</t>
+          <t>Deluxe Apartment</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>233465395</t>
+          <t>316158442</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>39421704</t>
+          <t>22283126</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -5059,17 +5140,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>590051741</t>
+          <t>520035870</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Bezzwrotna</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>296420461</t>
+          <t>385539404</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -5099,19 +5180,19 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Apartment (Apartament Bałtyk 6/26)</t>
+          <t>Deluxe Apartment</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>233465395</t>
+          <t>316158442</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>39421704</t>
+          <t>22283126</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -5121,17 +5202,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>590051741</t>
+          <t>520035870</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Bezzwrotna Bałtyk 5/45</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>385153714</t>
+          <t>385539407</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -5161,19 +5242,19 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Apartment, Bay View (Apartament Bałtyk 5/45 Bay View)</t>
+          <t>Junior Apartment</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>233465393</t>
+          <t>316158370</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>39421704</t>
+          <t>22283126</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -5183,17 +5264,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>590051741</t>
+          <t>520035870</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Bezzwrotna</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>296420459</t>
+          <t>385539403</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -5223,19 +5304,19 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Apartment, Bay View (Apartament Bałtyk 5/45 Bay View)</t>
+          <t>Junior Apartment</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>233465393</t>
+          <t>316158370</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>39421704</t>
+          <t>22283126</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -5245,17 +5326,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>590051741</t>
+          <t>520035870</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Bezzwrotna Bałtyk 5/43</t>
+          <t>Bezzwrotna</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>385153581</t>
+          <t>385151604</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -5285,19 +5366,19 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Apartment (Apartament Bałtyk 5/43)</t>
+          <t>Traditional Apartment</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>233465392</t>
+          <t>219340578</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>39421704</t>
+          <t>22283126</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -5307,7 +5388,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>590051741</t>
+          <t>520035870</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -5317,7 +5398,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>296420458</t>
+          <t>282200964</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -5347,19 +5428,19 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Apartment (Apartament Bałtyk 5/43)</t>
+          <t>Traditional Apartment</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>233465392</t>
+          <t>219340578</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>39421704</t>
+          <t>38533193</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -5369,17 +5450,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>590051741</t>
+          <t>540049572</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Bezzwrotna Bałtyk 5/11</t>
+          <t>Bezzwrotna</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>385153421</t>
+          <t>385177220</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -5409,19 +5490,19 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Apartment (Apartament Baltyk 5/11)</t>
+          <t>Deluxe Apartment</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>233465391</t>
+          <t>219957066</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>39421704</t>
+          <t>38533193</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -5431,7 +5512,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>590051741</t>
+          <t>540049572</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -5441,7 +5522,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>296420456</t>
+          <t>286235847</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -5471,19 +5552,19 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Apartment (Apartament Baltyk 5/11)</t>
+          <t>Deluxe Apartment</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>233465391</t>
+          <t>219957066</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>22283126</t>
+          <t>38533039</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -5493,7 +5574,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>520035870</t>
+          <t>450041594</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -5503,7 +5584,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>390483981</t>
+          <t>385151859</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5533,19 +5614,19 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Junior Apartment</t>
+          <t>Family Apartment</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>322131233</t>
+          <t>217250924</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>22283126</t>
+          <t>38533039</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -5555,7 +5636,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>520035870</t>
+          <t>450041594</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -5565,7 +5646,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>390483980</t>
+          <t>268219307</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5595,19 +5676,19 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Junior Apartment</t>
+          <t>Family Apartment</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>322131233</t>
+          <t>217250924</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>22283126</t>
+          <t>83437017</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -5617,17 +5698,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>520035870</t>
+          <t>610264647</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Non-refundable</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>385539408</t>
+          <t>387873668</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5657,19 +5738,19 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Deluxe Apartment</t>
+          <t>Deluxe Studio Suite</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>316158442</t>
+          <t>321148054</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>22283126</t>
+          <t>83437017</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -5679,17 +5760,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>520035870</t>
+          <t>610264647</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Bezzwrotna</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>385539404</t>
+          <t>387873666</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5719,19 +5800,19 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Deluxe Apartment</t>
+          <t>Deluxe Studio Suite</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>316158442</t>
+          <t>321148054</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>22283126</t>
+          <t>83437017</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -5741,7 +5822,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>520035870</t>
+          <t>610264647</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -5751,7 +5832,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>385539407</t>
+          <t>387873285</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5781,19 +5862,19 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Junior Apartment</t>
+          <t>Deluxe Studio Suite</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>316158370</t>
+          <t>321147951</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>22283126</t>
+          <t>83437017</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -5803,17 +5884,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>520035870</t>
+          <t>610264647</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Bezzwrotna</t>
+          <t>Non-refundable</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>385539403</t>
+          <t>387873182</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5843,19 +5924,19 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Junior Apartment</t>
+          <t>Deluxe Studio Suite</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>316158370</t>
+          <t>321147951</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>22283126</t>
+          <t>83437017</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -5865,17 +5946,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>520035870</t>
+          <t>610264647</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Bezzwrotna</t>
+          <t>Non-refundable</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>385151604</t>
+          <t>387567368</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5905,19 +5986,19 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Traditional Apartment</t>
+          <t>Deluxe Apartment</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>219340578</t>
+          <t>321016349</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>22283126</t>
+          <t>83437017</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -5927,7 +6008,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>520035870</t>
+          <t>610264647</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -5937,7 +6018,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>282200964</t>
+          <t>387567367</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5967,19 +6048,19 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Traditional Apartment</t>
+          <t>Deluxe Apartment</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>219340578</t>
+          <t>321016349</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>38533193</t>
+          <t>83437017</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -5989,17 +6070,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>540049572</t>
+          <t>610264647</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Bezzwrotna</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>385177220</t>
+          <t>387179004</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -6029,19 +6110,19 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Deluxe Apartment</t>
+          <t>Deluxe Studio Suite</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>219957066</t>
+          <t>320701838</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>38533193</t>
+          <t>83437017</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -6051,17 +6132,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>540049572</t>
+          <t>610264647</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Non-refundable</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>286235847</t>
+          <t>387149710</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -6091,19 +6172,19 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Deluxe Apartment</t>
+          <t>Deluxe Studio Suite</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>219957066</t>
+          <t>320701838</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>38533039</t>
+          <t>83437017</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -6113,17 +6194,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>450041594</t>
+          <t>610264647</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Bezzwrotna</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>385151859</t>
+          <t>387179005</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -6153,19 +6234,19 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Family Apartment</t>
+          <t>Deluxe Apartment</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>217250924</t>
+          <t>320698963</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>38533039</t>
+          <t>83437017</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -6175,17 +6256,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>450041594</t>
+          <t>610264647</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Non-refundable</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>268219307</t>
+          <t>387149318</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -6215,19 +6296,19 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Family Apartment</t>
+          <t>Deluxe Apartment</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>217250924</t>
+          <t>320698963</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>83437017</t>
+          <t>38518854</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -6237,17 +6318,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>610264647</t>
+          <t>530027679</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>387873668</t>
+          <t>391752094</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -6277,19 +6358,19 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Deluxe Studio Suite</t>
+          <t>Classic Apartment</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>321148054</t>
+          <t>322761562</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>83437017</t>
+          <t>38518854</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -6299,17 +6380,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>610264647</t>
+          <t>530027679</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Bezzwrotna</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>387873666</t>
+          <t>391752093</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6339,19 +6420,19 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Deluxe Studio Suite</t>
+          <t>Classic Apartment</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>321148054</t>
+          <t>322761562</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>83437017</t>
+          <t>38518854</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -6361,17 +6442,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>610264647</t>
+          <t>530027679</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Bezzwrotna</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>387873285</t>
+          <t>391751849</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6401,19 +6482,19 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Deluxe Studio Suite</t>
+          <t>Deluxe Apartment</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>321147951</t>
+          <t>322761523</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>83437017</t>
+          <t>38518854</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -6423,17 +6504,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>610264647</t>
+          <t>530027679</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>387873182</t>
+          <t>391751848</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6463,19 +6544,19 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Deluxe Studio Suite</t>
+          <t>Deluxe Apartment</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>321147951</t>
+          <t>322761523</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>83437017</t>
+          <t>38518854</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -6485,17 +6566,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>610264647</t>
+          <t>530027679</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>Bezzwrotna</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>387567368</t>
+          <t>385177218</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6525,19 +6606,19 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Deluxe Apartment</t>
+          <t>Comfort Apartment</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>321016349</t>
+          <t>219632588</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>83437017</t>
+          <t>38518854</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -6547,7 +6628,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>610264647</t>
+          <t>530027679</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -6557,7 +6638,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>387567367</t>
+          <t>284149409</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6587,19 +6668,19 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Deluxe Apartment</t>
+          <t>Comfort Apartment</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>321016349</t>
+          <t>219632588</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>83437017</t>
+          <t>87924077</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -6609,7 +6690,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>610264647</t>
+          <t>610347036</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -6619,7 +6700,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>387179004</t>
+          <t>393294172</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6649,19 +6730,19 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Deluxe Studio Suite</t>
+          <t>Deluxe Suite</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>320701838</t>
+          <t>323978261</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>83437017</t>
+          <t>87924077</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -6671,7 +6752,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>610264647</t>
+          <t>610347036</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -6681,7 +6762,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>387149710</t>
+          <t>393294171</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6711,19 +6792,19 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Deluxe Studio Suite</t>
+          <t>Deluxe Suite</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>320701838</t>
+          <t>323978261</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>83437017</t>
+          <t>87924077</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -6733,17 +6814,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>610264647</t>
+          <t>610347036</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Non-refundable</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>387179005</t>
+          <t>393293684</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6773,19 +6854,19 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Deluxe Apartment</t>
+          <t>Deluxe Suite</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>320698963</t>
+          <t>323978068</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>83437017</t>
+          <t>87924077</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -6795,17 +6876,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>610264647</t>
+          <t>610347036</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>387149318</t>
+          <t>393293683</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6835,19 +6916,19 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Deluxe Apartment</t>
+          <t>Deluxe Suite</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>320698963</t>
+          <t>323978068</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>38518854</t>
+          <t>87924077</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -6857,7 +6938,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>530027679</t>
+          <t>610347036</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -6867,7 +6948,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>391752094</t>
+          <t>393293532</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6897,19 +6978,19 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Classic Apartment</t>
+          <t>Deluxe Apartment</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>322761562</t>
+          <t>323978039</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>38518854</t>
+          <t>87924077</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -6919,17 +7000,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>530027679</t>
+          <t>610347036</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Bezzwrotna</t>
+          <t>Non-refundable</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>391752093</t>
+          <t>393293531</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6959,19 +7040,19 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Classic Apartment</t>
+          <t>Deluxe Apartment</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>322761562</t>
+          <t>323978039</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>38518854</t>
+          <t>87924077</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -6981,17 +7062,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>530027679</t>
+          <t>610347036</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Bezzwrotna</t>
+          <t>Non-refundable</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>391751849</t>
+          <t>388831068</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -7021,19 +7102,19 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Deluxe Apartment</t>
+          <t>Deluxe Suite</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>322761523</t>
+          <t>321432526</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>38518854</t>
+          <t>87924077</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -7043,7 +7124,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>530027679</t>
+          <t>610347036</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -7053,7 +7134,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>391751848</t>
+          <t>388831067</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -7083,19 +7164,19 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Deluxe Apartment</t>
+          <t>Deluxe Suite</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>322761523</t>
+          <t>321432526</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>38518854</t>
+          <t>87924077</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -7105,17 +7186,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>530027679</t>
+          <t>610347036</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Bezzwrotna</t>
+          <t>Non-refundable</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>385177218</t>
+          <t>388664330</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -7145,19 +7226,19 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Comfort Apartment</t>
+          <t>Deluxe Apartment</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>219632588</t>
+          <t>321350328</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>38518854</t>
+          <t>87924077</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -7167,7 +7248,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>530027679</t>
+          <t>610347036</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -7177,7 +7258,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>284149409</t>
+          <t>388664329</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -7207,12 +7288,12 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Comfort Apartment</t>
+          <t>Deluxe Apartment</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>219632588</t>
+          <t>321350328</t>
         </is>
       </c>
     </row>
@@ -7234,12 +7315,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Non-refundable</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>393294172</t>
+          <t>388218672</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -7274,7 +7355,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>323978261</t>
+          <t>321213002</t>
         </is>
       </c>
     </row>
@@ -7296,12 +7377,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>393294171</t>
+          <t>388218671</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -7336,7 +7417,7 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>323978261</t>
+          <t>321213002</t>
         </is>
       </c>
     </row>
@@ -7363,7 +7444,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>393293684</t>
+          <t>388218310</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -7398,7 +7479,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>323978068</t>
+          <t>321212935</t>
         </is>
       </c>
     </row>
@@ -7425,7 +7506,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>393293683</t>
+          <t>388218309</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -7460,7 +7541,7 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>323978068</t>
+          <t>321212935</t>
         </is>
       </c>
     </row>
@@ -7487,7 +7568,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>393293532</t>
+          <t>388217596</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -7517,12 +7598,12 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Deluxe Apartment</t>
+          <t>Deluxe Suite</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>323978039</t>
+          <t>321212858</t>
         </is>
       </c>
     </row>
@@ -7549,7 +7630,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>393293531</t>
+          <t>388217595</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -7579,12 +7660,12 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Deluxe Apartment</t>
+          <t>Deluxe Suite</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>323978039</t>
+          <t>321212858</t>
         </is>
       </c>
     </row>
@@ -7611,7 +7692,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>388831068</t>
+          <t>388217321</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -7646,7 +7727,7 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>321432526</t>
+          <t>321212768</t>
         </is>
       </c>
     </row>
@@ -7673,7 +7754,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>388831067</t>
+          <t>388217320</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -7708,7 +7789,7 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>321432526</t>
+          <t>321212768</t>
         </is>
       </c>
     </row>
@@ -7735,7 +7816,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>388664330</t>
+          <t>388217217</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -7765,12 +7846,12 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Deluxe Apartment</t>
+          <t>Deluxe Suite</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>321350328</t>
+          <t>321212603</t>
         </is>
       </c>
     </row>
@@ -7797,7 +7878,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>388664329</t>
+          <t>388217216</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -7827,12 +7908,12 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Deluxe Apartment</t>
+          <t>Deluxe Suite</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>321350328</t>
+          <t>321212603</t>
         </is>
       </c>
     </row>
@@ -7854,12 +7935,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>388218672</t>
+          <t>388217051</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -7894,7 +7975,7 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>321213002</t>
+          <t>321212511</t>
         </is>
       </c>
     </row>
@@ -7916,12 +7997,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Non-refundable</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>388218671</t>
+          <t>388217050</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -7956,7 +8037,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>321213002</t>
+          <t>321212511</t>
         </is>
       </c>
     </row>
@@ -7978,12 +8059,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>388218310</t>
+          <t>388204970</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -8013,12 +8094,12 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Deluxe Suite</t>
+          <t>Deluxe Apartment</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>321212935</t>
+          <t>321210837</t>
         </is>
       </c>
     </row>
@@ -8040,12 +8121,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Non-refundable</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>388218309</t>
+          <t>388204969</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -8075,12 +8156,12 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Deluxe Suite</t>
+          <t>Deluxe Apartment</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>321212935</t>
+          <t>321210837</t>
         </is>
       </c>
     </row>
@@ -8107,7 +8188,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>388217596</t>
+          <t>388204805</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -8137,12 +8218,12 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Deluxe Suite</t>
+          <t>Deluxe Apartment</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>321212858</t>
+          <t>321210780</t>
         </is>
       </c>
     </row>
@@ -8169,7 +8250,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>388217595</t>
+          <t>388204642</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -8199,12 +8280,12 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Deluxe Suite</t>
+          <t>Deluxe Apartment</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>321212858</t>
+          <t>321210780</t>
         </is>
       </c>
     </row>
@@ -8226,12 +8307,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>388217321</t>
+          <t>388204231</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -8266,7 +8347,7 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>321212768</t>
+          <t>321162377</t>
         </is>
       </c>
     </row>
@@ -8288,12 +8369,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Non-refundable</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>388217320</t>
+          <t>387934822</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -8328,7 +8409,7 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>321212768</t>
+          <t>321162377</t>
         </is>
       </c>
     </row>
@@ -8350,12 +8431,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>388217217</t>
+          <t>387878958</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -8390,7 +8471,7 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>321212603</t>
+          <t>321149022</t>
         </is>
       </c>
     </row>
@@ -8412,12 +8493,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Non-refundable</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>388217216</t>
+          <t>387878431</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -8452,14 +8533,14 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>321212603</t>
+          <t>321149022</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>87924077</t>
+          <t>58316555</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -8469,17 +8550,17 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>610347036</t>
+          <t>490062727</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Bezzwrotna</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>388217051</t>
+          <t>391751478</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -8509,19 +8590,19 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Deluxe Suite</t>
+          <t>Panoramic Apartment, 2 Bedrooms, Sea View</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>321212511</t>
+          <t>322761429</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>87924077</t>
+          <t>58316555</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -8531,17 +8612,17 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>610347036</t>
+          <t>490062727</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>388217050</t>
+          <t>391751477</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -8571,19 +8652,19 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Deluxe Suite</t>
+          <t>Panoramic Apartment, 2 Bedrooms, Sea View</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>321212511</t>
+          <t>322761429</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>87924077</t>
+          <t>58316555</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -8593,17 +8674,17 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>610347036</t>
+          <t>490062727</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Bezzwrotna</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>388204970</t>
+          <t>388831092</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -8633,19 +8714,19 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Deluxe Apartment</t>
+          <t>Panoramic Apartment, 1 Bedroom, Sea View</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>321210837</t>
+          <t>321432596</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>87924077</t>
+          <t>58316555</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -8655,17 +8736,17 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>610347036</t>
+          <t>490062727</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>388204969</t>
+          <t>388831091</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -8695,19 +8776,19 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Deluxe Apartment</t>
+          <t>Panoramic Apartment, 1 Bedroom, Sea View</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>321210837</t>
+          <t>321432596</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>87924077</t>
+          <t>58316555</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -8717,17 +8798,17 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>610347036</t>
+          <t>490062727</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Bezzwrotna</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>388204805</t>
+          <t>385177232</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -8757,19 +8838,19 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Deluxe Apartment</t>
+          <t>Panoramic Apartment, 2 Bedrooms, Sea View</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>321210780</t>
+          <t>230462590</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>87924077</t>
+          <t>58316555</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -8779,17 +8860,17 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>610347036</t>
+          <t>490062727</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>388204642</t>
+          <t>276391514</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -8819,19 +8900,19 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Deluxe Apartment</t>
+          <t>Panoramic Apartment, 2 Bedrooms, Sea View</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>321210780</t>
+          <t>230462590</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>87924077</t>
+          <t>58316555</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -8841,17 +8922,17 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>610347036</t>
+          <t>490062727</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Bezzwrotna</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>388204231</t>
+          <t>385177231</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -8881,19 +8962,19 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Deluxe Suite</t>
+          <t>Panoramic Apartment, 1 Bedroom, Sea View</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>321162377</t>
+          <t>230462589</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>87924077</t>
+          <t>58316555</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -8903,17 +8984,17 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>610347036</t>
+          <t>490062727</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>387934822</t>
+          <t>276391512</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -8943,19 +9024,19 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Deluxe Suite</t>
+          <t>Panoramic Apartment, 1 Bedroom, Sea View</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>321162377</t>
+          <t>230462589</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>87924077</t>
+          <t>58316555</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -8965,17 +9046,17 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>610347036</t>
+          <t>490062727</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Bezzwrotna</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>387878958</t>
+          <t>385177230</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -9005,19 +9086,19 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Deluxe Suite</t>
+          <t>Panoramic Penthouse, 1 Bedroom, Bathtub, Sea View</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>321149022</t>
+          <t>230462588</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>87924077</t>
+          <t>58316555</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -9027,17 +9108,17 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>610347036</t>
+          <t>490062727</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>387878431</t>
+          <t>276391509</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -9067,19 +9148,19 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Deluxe Suite</t>
+          <t>Panoramic Penthouse, 1 Bedroom, Bathtub, Sea View</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>321149022</t>
+          <t>230462588</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>58316555</t>
+          <t>38514997</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -9089,7 +9170,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>490062727</t>
+          <t>470041594</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -9099,7 +9180,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>391751478</t>
+          <t>385177197</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -9129,19 +9210,19 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Panoramic Apartment, 2 Bedrooms, Sea View</t>
+          <t>Deluxe Apartment</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>322761429</t>
+          <t>217859522</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>58316555</t>
+          <t>38514997</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -9151,17 +9232,17 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>490062727</t>
+          <t>470041594</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Standard Rate</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>391751477</t>
+          <t>272226703</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -9191,19 +9272,19 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Panoramic Apartment, 2 Bedrooms, Sea View</t>
+          <t>Deluxe Apartment</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>322761429</t>
+          <t>217859522</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>58316555</t>
+          <t>38515255</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -9213,7 +9294,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>490062727</t>
+          <t>330020006</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -9223,7 +9304,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>388831092</t>
+          <t>385177198</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -9253,19 +9334,19 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Panoramic Apartment, 1 Bedroom, Sea View</t>
+          <t>Deluxe Apartment</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>321432596</t>
+          <t>213623754</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>58316555</t>
+          <t>38515255</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -9275,7 +9356,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>490062727</t>
+          <t>330020006</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -9285,7 +9366,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>388831091</t>
+          <t>244203618</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -9315,19 +9396,19 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Panoramic Apartment, 1 Bedroom, Sea View</t>
+          <t>Deluxe Apartment</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>321432596</t>
+          <t>213623754</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>58316555</t>
+          <t>38515686</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -9337,7 +9418,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>490062727</t>
+          <t>580050111</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -9347,7 +9428,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>385177232</t>
+          <t>385177213</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -9377,19 +9458,19 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Panoramic Apartment, 2 Bedrooms, Sea View</t>
+          <t>Studio</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>230462590</t>
+          <t>221157306</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>58316555</t>
+          <t>38515686</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -9399,17 +9480,17 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>490062727</t>
+          <t>580050111</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Standard Rate</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>276391514</t>
+          <t>294234269</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -9439,19 +9520,19 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Panoramic Apartment, 2 Bedrooms, Sea View</t>
+          <t>Studio</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>230462590</t>
+          <t>221157306</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>58316555</t>
+          <t>88893764</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -9461,17 +9542,17 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>490062727</t>
+          <t>610355721</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Bezzwrotna</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>385177231</t>
+          <t>388296726</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -9501,19 +9582,19 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Panoramic Apartment, 1 Bedroom, Sea View</t>
+          <t>Deluxe Studio Suite</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>230462589</t>
+          <t>321232151</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>58316555</t>
+          <t>88893764</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -9523,17 +9604,17 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>490062727</t>
+          <t>610355721</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Non-refundable</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>276391512</t>
+          <t>388296725</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -9563,19 +9644,19 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Panoramic Apartment, 1 Bedroom, Sea View</t>
+          <t>Deluxe Studio Suite</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>230462589</t>
+          <t>321232151</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>58316555</t>
+          <t>88893764</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -9585,17 +9666,17 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>490062727</t>
+          <t>610355721</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Bezzwrotna</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>385177230</t>
+          <t>388294938</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -9625,19 +9706,19 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Panoramic Penthouse, 1 Bedroom, Bathtub, Sea View</t>
+          <t>Deluxe Studio Suite</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>230462588</t>
+          <t>321231128</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>58316555</t>
+          <t>88893764</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -9647,17 +9728,17 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>490062727</t>
+          <t>610355721</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Non-refundable</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>276391509</t>
+          <t>388294937</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -9687,19 +9768,19 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Panoramic Penthouse, 1 Bedroom, Bathtub, Sea View</t>
+          <t>Deluxe Studio Suite</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>230462588</t>
+          <t>321231128</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>38514997</t>
+          <t>88893764</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -9709,17 +9790,17 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>470041594</t>
+          <t>610355721</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Bezzwrotna</t>
+          <t>Non-refundable</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>385177197</t>
+          <t>388294562</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -9749,19 +9830,19 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Deluxe Apartment</t>
+          <t>Deluxe Studio Suite</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>217859522</t>
+          <t>321230887</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>38514997</t>
+          <t>88893764</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -9771,17 +9852,17 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>470041594</t>
+          <t>610355721</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Standard Rate</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>272226703</t>
+          <t>388294561</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -9811,19 +9892,19 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Deluxe Apartment</t>
+          <t>Deluxe Studio Suite</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>217859522</t>
+          <t>321230887</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>38515255</t>
+          <t>88893764</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -9833,17 +9914,17 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>330020006</t>
+          <t>610355721</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Bezzwrotna</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>385177198</t>
+          <t>388293965</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -9873,19 +9954,19 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Deluxe Apartment</t>
+          <t>Deluxe Studio Suite</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>213623754</t>
+          <t>321230414</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>38515255</t>
+          <t>88893764</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -9895,17 +9976,17 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>330020006</t>
+          <t>610355721</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Non-refundable</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>244203618</t>
+          <t>388293964</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -9935,19 +10016,19 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Deluxe Apartment</t>
+          <t>Deluxe Studio Suite</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>213623754</t>
+          <t>321230414</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>38515686</t>
+          <t>88893764</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -9957,17 +10038,17 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>580050111</t>
+          <t>610355721</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Bezzwrotna</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>385177213</t>
+          <t>388290064</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -9997,19 +10078,19 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>Studio</t>
+          <t>Deluxe Apartment</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>221157306</t>
+          <t>321229991</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>38515686</t>
+          <t>88893764</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -10019,17 +10100,17 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>580050111</t>
+          <t>610355721</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Standard Rate</t>
+          <t>Non-refundable</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>294234269</t>
+          <t>388290063</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -10059,12 +10140,12 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>Studio</t>
+          <t>Deluxe Apartment</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>221157306</t>
+          <t>321229991</t>
         </is>
       </c>
     </row>
@@ -10086,12 +10167,12 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Non-refundable</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>388296726</t>
+          <t>388257934</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -10126,7 +10207,7 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>321232151</t>
+          <t>321214699</t>
         </is>
       </c>
     </row>
@@ -10148,12 +10229,12 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>388296725</t>
+          <t>388241312</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -10188,14 +10269,14 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>321232151</t>
+          <t>321214699</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>88893764</t>
+          <t>74616761</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -10205,17 +10286,17 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>610355721</t>
+          <t>610144563</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Non-refundable</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>388294938</t>
+          <t>393293049</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -10245,19 +10326,19 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Deluxe Studio Suite</t>
+          <t>Superior Apartment</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>321231128</t>
+          <t>323977831</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>88893764</t>
+          <t>74616761</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -10267,17 +10348,17 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>610355721</t>
+          <t>610144563</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>388294937</t>
+          <t>393293048</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -10307,19 +10388,19 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>Deluxe Studio Suite</t>
+          <t>Superior Apartment</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>321231128</t>
+          <t>323977831</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>88893764</t>
+          <t>74616761</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -10329,7 +10410,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>610355721</t>
+          <t>610144563</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -10339,7 +10420,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>388294562</t>
+          <t>392177995</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -10369,19 +10450,19 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Deluxe Studio Suite</t>
+          <t>Superior Apartment</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>321230887</t>
+          <t>323471251</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>88893764</t>
+          <t>74616761</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -10391,7 +10472,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>610355721</t>
+          <t>610144563</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -10401,7 +10482,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>388294561</t>
+          <t>392177994</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -10431,19 +10512,19 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>Deluxe Studio Suite</t>
+          <t>Superior Apartment</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>321230887</t>
+          <t>323471251</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>88893764</t>
+          <t>74616761</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -10453,7 +10534,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>610355721</t>
+          <t>610144563</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -10463,7 +10544,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>388293965</t>
+          <t>392177919</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -10493,19 +10574,19 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Deluxe Studio Suite</t>
+          <t>Superior Apartment</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>321230414</t>
+          <t>323471210</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>88893764</t>
+          <t>74616761</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -10515,7 +10596,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>610355721</t>
+          <t>610144563</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -10525,7 +10606,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>388293964</t>
+          <t>392177918</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -10555,19 +10636,19 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Deluxe Studio Suite</t>
+          <t>Superior Apartment</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>321230414</t>
+          <t>323471210</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>88893764</t>
+          <t>74616761</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -10577,17 +10658,17 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>610355721</t>
+          <t>610144563</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Non-refundable</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>388290064</t>
+          <t>392177872</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -10617,19 +10698,19 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Deluxe Apartment</t>
+          <t>Superior Apartment</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>321229991</t>
+          <t>323471192</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>88893764</t>
+          <t>74616761</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -10639,17 +10720,17 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>610355721</t>
+          <t>610144563</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>388290063</t>
+          <t>392177871</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -10679,19 +10760,19 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Deluxe Apartment</t>
+          <t>Superior Apartment</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>321229991</t>
+          <t>323471192</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>88893764</t>
+          <t>74616761</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -10701,7 +10782,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>610355721</t>
+          <t>610144563</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -10711,7 +10792,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>388257934</t>
+          <t>392177748</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -10741,19 +10822,19 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Deluxe Studio Suite</t>
+          <t>Superior Apartment</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>321214699</t>
+          <t>323471173</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>88893764</t>
+          <t>74616761</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -10763,7 +10844,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>610355721</t>
+          <t>610144563</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -10773,7 +10854,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>388241312</t>
+          <t>392177747</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -10803,12 +10884,12 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Deluxe Studio Suite</t>
+          <t>Superior Apartment</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>321214699</t>
+          <t>323471173</t>
         </is>
       </c>
     </row>
@@ -10835,7 +10916,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>393293049</t>
+          <t>385445687</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -10870,7 +10951,7 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>323977831</t>
+          <t>316023973</t>
         </is>
       </c>
     </row>
@@ -10897,7 +10978,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>393293048</t>
+          <t>385280146</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -10932,7 +11013,7 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>323977831</t>
+          <t>316023973</t>
         </is>
       </c>
     </row>
@@ -10959,7 +11040,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>392177995</t>
+          <t>385445684</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -10994,7 +11075,7 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>323471251</t>
+          <t>316023970</t>
         </is>
       </c>
     </row>
@@ -11021,7 +11102,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>392177994</t>
+          <t>385280143</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -11056,7 +11137,7 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>323471251</t>
+          <t>316023970</t>
         </is>
       </c>
     </row>
@@ -11078,12 +11159,12 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Non-refundable</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>392177919</t>
+          <t>385445622</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -11118,7 +11199,7 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>323471210</t>
+          <t>316023957</t>
         </is>
       </c>
     </row>
@@ -11140,12 +11221,12 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>392177918</t>
+          <t>385280123</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -11180,7 +11261,7 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>323471210</t>
+          <t>316023957</t>
         </is>
       </c>
     </row>
@@ -11207,7 +11288,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>392177872</t>
+          <t>385445565</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -11242,7 +11323,7 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>323471192</t>
+          <t>316023942</t>
         </is>
       </c>
     </row>
@@ -11269,7 +11350,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>392177871</t>
+          <t>385280106</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -11304,7 +11385,7 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>323471192</t>
+          <t>316023942</t>
         </is>
       </c>
     </row>
@@ -11331,7 +11412,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>392177748</t>
+          <t>385445489</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -11366,7 +11447,7 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>323471173</t>
+          <t>316023930</t>
         </is>
       </c>
     </row>
@@ -11393,7 +11474,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>392177747</t>
+          <t>385280096</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -11428,7 +11509,7 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>323471173</t>
+          <t>316023930</t>
         </is>
       </c>
     </row>
@@ -11455,7 +11536,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>385445687</t>
+          <t>385445487</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -11490,7 +11571,7 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>316023973</t>
+          <t>316023923</t>
         </is>
       </c>
     </row>
@@ -11517,7 +11598,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>385280146</t>
+          <t>385280081</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -11552,7 +11633,7 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>316023973</t>
+          <t>316023923</t>
         </is>
       </c>
     </row>
@@ -11579,7 +11660,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>385445684</t>
+          <t>385445479</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -11614,7 +11695,7 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>316023970</t>
+          <t>316023896</t>
         </is>
       </c>
     </row>
@@ -11641,7 +11722,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>385280143</t>
+          <t>385280057</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -11676,7 +11757,7 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>316023970</t>
+          <t>316023896</t>
         </is>
       </c>
     </row>
@@ -11703,7 +11784,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>385445622</t>
+          <t>385445440</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -11738,7 +11819,7 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>316023957</t>
+          <t>316023882</t>
         </is>
       </c>
     </row>
@@ -11765,7 +11846,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>385280123</t>
+          <t>385280041</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -11800,7 +11881,7 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>316023957</t>
+          <t>316023882</t>
         </is>
       </c>
     </row>
@@ -11827,7 +11908,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>385445565</t>
+          <t>385445423</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -11857,12 +11938,12 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>Superior Apartment</t>
+          <t>Comfort Studio Suite</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>316023942</t>
+          <t>316023678</t>
         </is>
       </c>
     </row>
@@ -11889,7 +11970,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>385280106</t>
+          <t>385280006</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -11919,12 +12000,12 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>Superior Apartment</t>
+          <t>Comfort Studio Suite</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>316023942</t>
+          <t>316023678</t>
         </is>
       </c>
     </row>
@@ -11951,7 +12032,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>385445489</t>
+          <t>385445426</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -11981,12 +12062,12 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>Superior Apartment</t>
+          <t>Junior Suite</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>316023930</t>
+          <t>316023534</t>
         </is>
       </c>
     </row>
@@ -12013,7 +12094,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>385280096</t>
+          <t>385279951</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -12043,630 +12124,10 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Superior Apartment</t>
+          <t>Junior Suite</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
-        <is>
-          <t>316023930</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>74616761</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>610144563</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>Non-refundable</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>385445487</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>OccupancyBasedPricing</t>
-        </is>
-      </c>
-      <c r="J167" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>Superior Apartment</t>
-        </is>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>316023923</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>74616761</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>610144563</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>385280081</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>OccupancyBasedPricing</t>
-        </is>
-      </c>
-      <c r="J168" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>Superior Apartment</t>
-        </is>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>316023923</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>74616761</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>610144563</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>Non-refundable</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>385445479</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>OccupancyBasedPricing</t>
-        </is>
-      </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>Superior Apartment</t>
-        </is>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>316023896</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>74616761</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>610144563</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>385280057</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>OccupancyBasedPricing</t>
-        </is>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>Superior Apartment</t>
-        </is>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>316023896</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>74616761</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>610144563</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>Non-refundable</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>385445440</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>OccupancyBasedPricing</t>
-        </is>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>Superior Apartment</t>
-        </is>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>316023882</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>74616761</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>610144563</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>385280041</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="I172" t="inlineStr">
-        <is>
-          <t>OccupancyBasedPricing</t>
-        </is>
-      </c>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>Superior Apartment</t>
-        </is>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>316023882</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>74616761</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>610144563</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>Non-refundable</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>385445423</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="I173" t="inlineStr">
-        <is>
-          <t>OccupancyBasedPricing</t>
-        </is>
-      </c>
-      <c r="J173" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>Comfort Studio Suite</t>
-        </is>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>316023678</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>74616761</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>610144563</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>385280006</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>OccupancyBasedPricing</t>
-        </is>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>Comfort Studio Suite</t>
-        </is>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>316023678</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>74616761</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>610144563</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>Non-refundable</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>385445426</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="I175" t="inlineStr">
-        <is>
-          <t>OccupancyBasedPricing</t>
-        </is>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>Junior Suite</t>
-        </is>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>316023534</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>74616761</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>610144563</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>385279951</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="I176" t="inlineStr">
-        <is>
-          <t>OccupancyBasedPricing</t>
-        </is>
-      </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>Junior Suite</t>
-        </is>
-      </c>
-      <c r="L176" t="inlineStr">
         <is>
           <t>316023534</t>
         </is>
